--- a/public/uploads/test.xlsx
+++ b/public/uploads/test.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Riri" sheetId="1" r:id="rId4"/>
-    <sheet name="Fifi" sheetId="2" r:id="rId5"/>
+    <sheet name="Tintin" sheetId="2" r:id="rId5"/>
     <sheet name="Loulou" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
